--- a/src/main/java/g_arquivos/excel/Teste.xlsx
+++ b/src/main/java/g_arquivos/excel/Teste.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handrade\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automacao\motivando-java\src\main\java\g_arquivos\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAAFC153-F3A5-4D3C-A780-979911495445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0829B-F9BF-452D-A7BC-C0281B2F5B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{951CF438-C2F6-4C96-996D-566A9DCC9394}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{951CF438-C2F6-4C96-996D-566A9DCC9394}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
-    <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados da Partida" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Nome</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Gols</t>
-  </si>
-  <si>
     <t>2min</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>Analista QA</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Gols Sofridos</t>
+  </si>
+  <si>
+    <t>Gols Feitos</t>
   </si>
 </sst>
 </file>
@@ -463,21 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C978FA6-1F81-4D46-84E5-03D3C4ED9F1A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -494,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,13 +511,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>45753</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,7 +534,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,7 +551,7 @@
         <v>45782</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,6 +566,23 @@
       </c>
       <c r="E5" s="1">
         <v>45875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45995</v>
       </c>
     </row>
   </sheetData>
@@ -569,35 +592,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F08A69-111F-4D2C-AF26-8271739FE6EA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -605,14 +632,17 @@
         <v>34</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,14 +650,17 @@
         <v>55</v>
       </c>
       <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -635,14 +668,17 @@
         <v>23</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -655,7 +691,27 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
